--- a/code/results/SP/B/signal_reconstruction/ipc.xlsx
+++ b/code/results/SP/B/signal_reconstruction/ipc.xlsx
@@ -383,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.331286235172617</v>
+        <v>2.407853578656407</v>
       </c>
     </row>
     <row r="3">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.128570758663573</v>
+        <v>2.317607741128846</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.261315078009156</v>
+        <v>2.298935887213102</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.310196020070528</v>
+        <v>2.311925919254779</v>
       </c>
     </row>
     <row r="6">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.372294295435413</v>
+        <v>2.372694376552394</v>
       </c>
     </row>
     <row r="7">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.352512067558304</v>
+        <v>2.338159738458639</v>
       </c>
     </row>
     <row r="8">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.096797781466244</v>
+        <v>2.159942396452617</v>
       </c>
     </row>
     <row r="9">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.163753336246879</v>
+        <v>2.157799778302009</v>
       </c>
     </row>
     <row r="10">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.897239345956234</v>
+        <v>1.88948966312718</v>
       </c>
     </row>
     <row r="11">
@@ -455,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.906567420760349</v>
+        <v>1.887548074646467</v>
       </c>
     </row>
     <row r="12">
@@ -463,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.879515898345344</v>
+        <v>1.857274580886208</v>
       </c>
     </row>
     <row r="13">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.857907464695257</v>
+        <v>1.856258684225538</v>
       </c>
     </row>
     <row r="14">
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.144928879332189</v>
+        <v>2.110237241134085</v>
       </c>
     </row>
     <row r="15">
@@ -487,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.137243394469816</v>
+        <v>1.170621668163006</v>
       </c>
     </row>
     <row r="16">
@@ -495,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.111685658381307</v>
+        <v>2.132865421296164</v>
       </c>
     </row>
     <row r="17">
@@ -503,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.850179096625486</v>
+        <v>1.858671016647466</v>
       </c>
     </row>
     <row r="18">
@@ -511,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.848276046033771</v>
+        <v>1.821282133314187</v>
       </c>
     </row>
     <row r="19">
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.938854528813597</v>
+        <v>1.384804039183738</v>
       </c>
     </row>
     <row r="20">
@@ -527,7 +527,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.802642227709175</v>
+        <v>1.364464279942262</v>
       </c>
     </row>
     <row r="21">
@@ -535,7 +535,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.721967918579139</v>
+        <v>1.712454857400361</v>
       </c>
     </row>
   </sheetData>
